--- a/data/trans_orig/P36B16-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B16-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>6190</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2662</v>
+        <v>2792</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12240</v>
+        <v>12402</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01241099303591326</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00533651482295818</v>
+        <v>0.00559786811939454</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02454104224752705</v>
+        <v>0.02486685873996217</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -762,19 +762,19 @@
         <v>4732</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2113</v>
+        <v>1985</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9948</v>
+        <v>9657</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007610276647638759</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003397896112767304</v>
+        <v>0.003192823216144728</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01599767454084274</v>
+        <v>0.01553054645125909</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -783,19 +783,19 @@
         <v>10922</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6514</v>
+        <v>6486</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18388</v>
+        <v>18945</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.009746951473883832</v>
+        <v>0.009746951473883833</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005813452752288715</v>
+        <v>0.005787985412016083</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01640945263477314</v>
+        <v>0.01690633820647943</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>37072</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25661</v>
+        <v>25526</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52607</v>
+        <v>53121</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07433095052149383</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05145117196467937</v>
+        <v>0.05118040789896403</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1054792422424724</v>
+        <v>0.1065115657864864</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>86</v>
@@ -833,19 +833,19 @@
         <v>63272</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>49707</v>
+        <v>49935</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82688</v>
+        <v>80318</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1017496394039404</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0799358822613972</v>
+        <v>0.08030321949645119</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1329746739043924</v>
+        <v>0.1291623592788293</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>121</v>
@@ -854,19 +854,19 @@
         <v>100343</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>81724</v>
+        <v>81518</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>121067</v>
+        <v>123354</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08954628941083113</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07293041595357214</v>
+        <v>0.07274691400531549</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1080400059735684</v>
+        <v>0.1100807145527052</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>262058</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>236750</v>
+        <v>237115</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>284381</v>
+        <v>288257</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5254418092825778</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.474697740523883</v>
+        <v>0.4754296770498141</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5702000956611322</v>
+        <v>0.5779711488149871</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>476</v>
@@ -904,19 +904,19 @@
         <v>341341</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>317556</v>
+        <v>316463</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>364487</v>
+        <v>362356</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5489241803988508</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5106751889934228</v>
+        <v>0.5089169881212743</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5861457683765841</v>
+        <v>0.5827198275434974</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>708</v>
@@ -925,19 +925,19 @@
         <v>603400</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>567330</v>
+        <v>570326</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>635277</v>
+        <v>636104</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5384727837391287</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5062841443972405</v>
+        <v>0.5089578477120273</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.566920075073201</v>
+        <v>0.5676581256583584</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>171771</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>150475</v>
+        <v>148658</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>196710</v>
+        <v>194891</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3444115274811988</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3017104702708344</v>
+        <v>0.2980676558507605</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3944139600291045</v>
+        <v>0.3907677234473614</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>266</v>
@@ -975,19 +975,19 @@
         <v>196627</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>176157</v>
+        <v>175790</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>218893</v>
+        <v>216907</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3162033306420557</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2832846740995683</v>
+        <v>0.2826946346255241</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3520100973410753</v>
+        <v>0.348817442694261</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>427</v>
@@ -996,19 +996,19 @@
         <v>368398</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>338234</v>
+        <v>333626</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>400297</v>
+        <v>397491</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3287580702278336</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3018392721020677</v>
+        <v>0.2977269987750868</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3572246557265535</v>
+        <v>0.3547202014652667</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>21648</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12631</v>
+        <v>13606</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>33635</v>
+        <v>34597</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04340471967881639</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02532649130255225</v>
+        <v>0.02728161816055279</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06744067070609165</v>
+        <v>0.06936952905527709</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -1046,19 +1046,19 @@
         <v>15865</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10005</v>
+        <v>9948</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23461</v>
+        <v>22422</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.02551257290751432</v>
+        <v>0.02551257290751433</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01609002455909306</v>
+        <v>0.01599730939598439</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03772784068562184</v>
+        <v>0.03605840241625008</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>42</v>
@@ -1067,19 +1067,19 @@
         <v>37512</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26587</v>
+        <v>27289</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>51025</v>
+        <v>52361</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03347590514832264</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02372621734603047</v>
+        <v>0.02435285104941719</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04553488334499195</v>
+        <v>0.04672700266572628</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>7156</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2918</v>
+        <v>3234</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14948</v>
+        <v>14651</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007453402288463683</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003039290248308088</v>
+        <v>0.003367908494282725</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01556854378156394</v>
+        <v>0.01525880048494543</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1192,19 +1192,19 @@
         <v>8320</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3764</v>
+        <v>3952</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15752</v>
+        <v>17103</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007456187486555547</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003373334895224178</v>
+        <v>0.003542034251185963</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01411658865777396</v>
+        <v>0.01532690218857173</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1213,19 +1213,19 @@
         <v>15476</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8582</v>
+        <v>9050</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24475</v>
+        <v>25481</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.00745489934161787</v>
+        <v>0.007454899341617871</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004133766882529593</v>
+        <v>0.004359147170736078</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01178978311134822</v>
+        <v>0.01227410710024979</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>66469</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>50888</v>
+        <v>50522</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>88185</v>
+        <v>86830</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06922821337027942</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05300107978293919</v>
+        <v>0.05261948221760156</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09184624881085555</v>
+        <v>0.09043534066338325</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>142</v>
@@ -1263,19 +1263,19 @@
         <v>85081</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>71656</v>
+        <v>70661</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>100436</v>
+        <v>100132</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0762473936167964</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0642163123092338</v>
+        <v>0.06332475278224312</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0900087741464751</v>
+        <v>0.08973638670602725</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>205</v>
@@ -1284,19 +1284,19 @@
         <v>151549</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>130399</v>
+        <v>131442</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>177301</v>
+        <v>178109</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.07300104588749161</v>
+        <v>0.07300104588749159</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06281321680223531</v>
+        <v>0.06331542671007399</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08540572859144765</v>
+        <v>0.08579504991013566</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>561822</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>528321</v>
+        <v>526535</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>595065</v>
+        <v>593104</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5851475724349209</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5502557056224331</v>
+        <v>0.5483957004131325</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6197714368705834</v>
+        <v>0.6177285843813516</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>935</v>
@@ -1334,19 +1334,19 @@
         <v>638192</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>611839</v>
+        <v>608129</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>668941</v>
+        <v>667534</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5719339428835887</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5483169137373827</v>
+        <v>0.5449922796280594</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5994902263876415</v>
+        <v>0.5982300688027242</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1482</v>
@@ -1355,19 +1355,19 @@
         <v>1200014</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1152658</v>
+        <v>1153292</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1246930</v>
+        <v>1243466</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5780452029999147</v>
+        <v>0.5780452029999146</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5552339511236009</v>
+        <v>0.5555394833521221</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6006446049075557</v>
+        <v>0.5989761190264317</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>309308</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>276731</v>
+        <v>277374</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>342498</v>
+        <v>340173</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3221493635161825</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2882206405670862</v>
+        <v>0.2888899990451939</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3567183142485326</v>
+        <v>0.3542966308027527</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>499</v>
@@ -1405,19 +1405,19 @@
         <v>367498</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>339456</v>
+        <v>339165</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>395089</v>
+        <v>396966</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3293441066013126</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3042135042305806</v>
+        <v>0.3039522234854051</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3540705856980826</v>
+        <v>0.3557522440276591</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>779</v>
@@ -1426,19 +1426,19 @@
         <v>676806</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>634929</v>
+        <v>633893</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>720528</v>
+        <v>720529</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3260165616377917</v>
+        <v>0.3260165616377916</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3058447766186179</v>
+        <v>0.3053455562890621</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3470774856434101</v>
+        <v>0.3470777573259848</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>15383</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8632</v>
+        <v>8481</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29202</v>
+        <v>29116</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01602144839015359</v>
+        <v>0.01602144839015358</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008990881840681093</v>
+        <v>0.008833207553608299</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03041400982876513</v>
+        <v>0.03032472545527974</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1476,19 +1476,19 @@
         <v>16758</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10465</v>
+        <v>10318</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27978</v>
+        <v>26815</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01501836941174663</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009378147186106672</v>
+        <v>0.00924643596875009</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02507320760243732</v>
+        <v>0.02403141985650839</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -1497,19 +1497,19 @@
         <v>32141</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22850</v>
+        <v>22022</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48133</v>
+        <v>49123</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01548229013318424</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01100666488037267</v>
+        <v>0.01060812558170476</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02318544278320564</v>
+        <v>0.02366236140958824</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>5669</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1627</v>
+        <v>1505</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16028</v>
+        <v>16022</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00541725108687788</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001554544436738038</v>
+        <v>0.001437883388751236</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01531589006633296</v>
+        <v>0.01531019660078379</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1622,19 +1622,19 @@
         <v>7618</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3895</v>
+        <v>3983</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13268</v>
+        <v>13518</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007285439449275982</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003724805291100319</v>
+        <v>0.003809575561142274</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0126897676003492</v>
+        <v>0.01292857661538762</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1643,19 +1643,19 @@
         <v>13287</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7835</v>
+        <v>7961</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24343</v>
+        <v>24073</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.006350947874139079</v>
+        <v>0.00635094787413908</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003745031455370266</v>
+        <v>0.003805139053640736</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0116357172193008</v>
+        <v>0.01150685681965174</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>79382</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>63126</v>
+        <v>62010</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>100077</v>
+        <v>101123</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07585654349542323</v>
+        <v>0.07585654349542321</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06032216173359857</v>
+        <v>0.0592559604979551</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09563178966779497</v>
+        <v>0.09663165751264827</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>141</v>
@@ -1693,19 +1693,19 @@
         <v>89015</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>74419</v>
+        <v>74927</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>104956</v>
+        <v>103932</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08513427760926666</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07117409618941999</v>
+        <v>0.07166015921740702</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1003794496822834</v>
+        <v>0.09940028022890214</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>222</v>
@@ -1714,19 +1714,19 @@
         <v>168398</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>144934</v>
+        <v>143560</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>195690</v>
+        <v>191229</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08049343702795732</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06927809453476458</v>
+        <v>0.06862119587545458</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09353925899006688</v>
+        <v>0.09140667820832589</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>640775</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>602127</v>
+        <v>603776</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>670806</v>
+        <v>674671</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6123150311884068</v>
+        <v>0.6123150311884067</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5753833673082195</v>
+        <v>0.5769590561369696</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.641012064944239</v>
+        <v>0.6447052816198485</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>930</v>
@@ -1764,19 +1764,19 @@
         <v>628561</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>599935</v>
+        <v>597677</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>654405</v>
+        <v>654305</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.6011554013537153</v>
+        <v>0.6011554013537151</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5737774056937649</v>
+        <v>0.5716172417924344</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6258717581445564</v>
+        <v>0.6257765564986506</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1568</v>
@@ -1785,19 +1785,19 @@
         <v>1269336</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1226286</v>
+        <v>1217988</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1312998</v>
+        <v>1309282</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6067375901051637</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5861597464511146</v>
+        <v>0.5821935179408837</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6276079154952267</v>
+        <v>0.6258313738731939</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>305122</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>276407</v>
+        <v>273158</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>340967</v>
+        <v>339621</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2915704673544018</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2641300772764328</v>
+        <v>0.2610259073665449</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3258231685854857</v>
+        <v>0.324537306809084</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>418</v>
@@ -1835,19 +1835,19 @@
         <v>311233</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>286643</v>
+        <v>286468</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>338217</v>
+        <v>337246</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2976623897534619</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2741454020446172</v>
+        <v>0.2739773641950032</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3234707655463287</v>
+        <v>0.3225420538461386</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>710</v>
@@ -1856,19 +1856,19 @@
         <v>616355</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>579923</v>
+        <v>577984</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>657586</v>
+        <v>666358</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2946151327033206</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2772009955254955</v>
+        <v>0.276273974908196</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3143235237506375</v>
+        <v>0.3185164449569474</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>15530</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8087</v>
+        <v>8601</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29199</v>
+        <v>29596</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01484070687489038</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007728055389311716</v>
+        <v>0.008219220088924365</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02790168651789764</v>
+        <v>0.02828115348505328</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -1906,19 +1906,19 @@
         <v>9162</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4724</v>
+        <v>4984</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16140</v>
+        <v>16671</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00876249183428031</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004517933191855269</v>
+        <v>0.004766953064908193</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01543579855959674</v>
+        <v>0.01594435794193072</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -1927,19 +1927,19 @@
         <v>24692</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16152</v>
+        <v>15184</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>41708</v>
+        <v>38555</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01180289228941928</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007720521942138328</v>
+        <v>0.007257743655436948</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01993614503755457</v>
+        <v>0.01842931179749703</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>10230</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5112</v>
+        <v>5306</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18326</v>
+        <v>19256</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01048195855112712</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00523841696685108</v>
+        <v>0.005436957502861123</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01877771347594717</v>
+        <v>0.01973046764397004</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -2052,19 +2052,19 @@
         <v>19020</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12534</v>
+        <v>12479</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27598</v>
+        <v>27152</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02098187608425936</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01382678783425783</v>
+        <v>0.0137663801094538</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03044437373807478</v>
+        <v>0.02995237222324909</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>37</v>
@@ -2073,19 +2073,19 @@
         <v>29250</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20158</v>
+        <v>20937</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40535</v>
+        <v>41626</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01553829568162808</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01070824264357332</v>
+        <v>0.01112240530007548</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02153340826803387</v>
+        <v>0.02211269778852837</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>98126</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>79403</v>
+        <v>78640</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>119347</v>
+        <v>119642</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1005459508671438</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08136135905697407</v>
+        <v>0.08057934716122737</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1222903016085424</v>
+        <v>0.1225928825044163</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>203</v>
@@ -2123,19 +2123,19 @@
         <v>140723</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>120201</v>
+        <v>120398</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>159971</v>
+        <v>162843</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1552372445559669</v>
+        <v>0.1552372445559668</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1325982362431545</v>
+        <v>0.1328159990836351</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1764699563979558</v>
+        <v>0.1796381105465444</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>305</v>
@@ -2144,19 +2144,19 @@
         <v>238849</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>213254</v>
+        <v>213629</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>270556</v>
+        <v>272889</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1268830738132356</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1132865941817439</v>
+        <v>0.1134856094877438</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1437265283604349</v>
+        <v>0.1449663583446326</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>569842</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>533620</v>
+        <v>534026</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>602436</v>
+        <v>601064</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5838971590391803</v>
+        <v>0.5838971590391804</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5467816019646081</v>
+        <v>0.5471975548307959</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6172953731696791</v>
+        <v>0.6158892618399642</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>804</v>
@@ -2194,19 +2194,19 @@
         <v>529134</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>502947</v>
+        <v>503420</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>558784</v>
+        <v>557254</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5837086944894402</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.554819981576275</v>
+        <v>0.5553418747877394</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6164163271744116</v>
+        <v>0.6147285575782681</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1376</v>
@@ -2215,19 +2215,19 @@
         <v>1098976</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1053877</v>
+        <v>1054547</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1143959</v>
+        <v>1143586</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.5838064021072684</v>
+        <v>0.5838064021072683</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5598484837532975</v>
+        <v>0.5602041264174594</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6077023494742418</v>
+        <v>0.6075041213041276</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>274029</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>242890</v>
+        <v>242150</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>306186</v>
+        <v>304303</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2807881938540011</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2488807261778067</v>
+        <v>0.2481229005569002</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3137382125351651</v>
+        <v>0.3118088073052634</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>257</v>
@@ -2265,19 +2265,19 @@
         <v>191151</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>168296</v>
+        <v>169459</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>214224</v>
+        <v>213226</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2108661251395349</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.185653385222452</v>
+        <v>0.1869366058481757</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.236318624631518</v>
+        <v>0.235217902526658</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>501</v>
@@ -2286,19 +2286,19 @@
         <v>465180</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>426336</v>
+        <v>426168</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>506812</v>
+        <v>506422</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2471165434656264</v>
+        <v>0.2471165434656263</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2264813182837548</v>
+        <v>0.2263919400888155</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2692321819671518</v>
+        <v>0.2690251225201508</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>23702</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14019</v>
+        <v>14444</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>42383</v>
+        <v>40191</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02428673768854763</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01436508743520699</v>
+        <v>0.01479987828125005</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04342882752956718</v>
+        <v>0.04118273602965727</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -2336,19 +2336,19 @@
         <v>26475</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17065</v>
+        <v>17237</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>41598</v>
+        <v>40796</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02920605973079883</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01882511913376254</v>
+        <v>0.01901425779794485</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04588840662836615</v>
+        <v>0.0450038420519501</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>46</v>
@@ -2357,19 +2357,19 @@
         <v>50178</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>35793</v>
+        <v>35083</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>72020</v>
+        <v>68284</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.02665568493224151</v>
+        <v>0.02665568493224149</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01901398371352596</v>
+        <v>0.01863707414917453</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03825909715250796</v>
+        <v>0.03627443335488675</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>29245</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>19754</v>
+        <v>19185</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>43188</v>
+        <v>42919</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.008400584868110295</v>
+        <v>0.008400584868110291</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005674244193320522</v>
+        <v>0.005510932016425225</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01240573495738178</v>
+        <v>0.01232848986183532</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>55</v>
@@ -2482,19 +2482,19 @@
         <v>39690</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>30891</v>
+        <v>30312</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>53000</v>
+        <v>52317</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01075675791431912</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008372013054570759</v>
+        <v>0.008215048427917489</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0143639809857121</v>
+        <v>0.01417884284009534</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>85</v>
@@ -2503,19 +2503,19 @@
         <v>68935</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>54554</v>
+        <v>54482</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>87249</v>
+        <v>86815</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.009612923568468853</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007607525946186924</v>
+        <v>0.007597482592403474</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01216681002744537</v>
+        <v>0.01210623760977772</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>281048</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>246196</v>
+        <v>246604</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>319402</v>
+        <v>322375</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.080731220103888</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07071986986721322</v>
+        <v>0.07083705205318805</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09174834037624506</v>
+        <v>0.09260233203565776</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>572</v>
@@ -2553,19 +2553,19 @@
         <v>378091</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>343692</v>
+        <v>344961</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>411471</v>
+        <v>412477</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1024697948563018</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09314712324460012</v>
+        <v>0.09349085295494164</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1115163580292098</v>
+        <v>0.1117891201011355</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>853</v>
@@ -2574,19 +2574,19 @@
         <v>659139</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>610510</v>
+        <v>612325</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>710448</v>
+        <v>713434</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09191652565917993</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08513515434657878</v>
+        <v>0.0853883582688845</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09907149654136511</v>
+        <v>0.09948790341660745</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>2034497</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1966097</v>
+        <v>1970926</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2091142</v>
+        <v>2102049</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5844099862819102</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5647620314108346</v>
+        <v>0.5661490886256918</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.600681343023579</v>
+        <v>0.6038141818620566</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3145</v>
@@ -2624,19 +2624,19 @@
         <v>2137229</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2085816</v>
+        <v>2080743</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2195798</v>
+        <v>2189547</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5792295532940509</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5652956630619236</v>
+        <v>0.5639207429524938</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.595102763109709</v>
+        <v>0.5934087300060312</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5134</v>
@@ -2645,19 +2645,19 @@
         <v>4171726</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4091402</v>
+        <v>4082951</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4254342</v>
+        <v>4255953</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5817444607569912</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5705433175196883</v>
+        <v>0.5693648436417692</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5932652303180385</v>
+        <v>0.5934898447867516</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>1060231</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1005522</v>
+        <v>998618</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1129640</v>
+        <v>1120556</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3045516249810482</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2888365593951382</v>
+        <v>0.2868533298624302</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3244895325972962</v>
+        <v>0.3218801543015556</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1440</v>
@@ -2695,19 +2695,19 @@
         <v>1066509</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1016431</v>
+        <v>1018595</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1114674</v>
+        <v>1117120</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2890440701485315</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2754721677875369</v>
+        <v>0.2760585609069574</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3020977244616428</v>
+        <v>0.3027607261273869</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2417</v>
@@ -2716,19 +2716,19 @@
         <v>2126739</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2048991</v>
+        <v>2044333</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2205245</v>
+        <v>2203472</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2965724110172678</v>
+        <v>0.2965724110172679</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2857303988522786</v>
+        <v>0.2850809127750619</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3075199112227447</v>
+        <v>0.3072726561751915</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>76263</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>56991</v>
+        <v>57379</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>99745</v>
+        <v>99770</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02190658376504334</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01637073644278788</v>
+        <v>0.01648217293582207</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02865188963228488</v>
+        <v>0.02865909627836369</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>84</v>
@@ -2766,19 +2766,19 @@
         <v>68260</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>53751</v>
+        <v>53818</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>85190</v>
+        <v>86355</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0184998237867967</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01456763404310286</v>
+        <v>0.01458573492736832</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0230880024361442</v>
+        <v>0.02340382250618674</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>148</v>
@@ -2787,19 +2787,19 @@
         <v>144523</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>118691</v>
+        <v>120887</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>173280</v>
+        <v>175384</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02015367899809227</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01655142606970049</v>
+        <v>0.01685764264721362</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.024163721337691</v>
+        <v>0.02445711840316745</v>
       </c>
     </row>
     <row r="33">
